--- a/full_vaccinations.xlsx
+++ b/full_vaccinations.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="SimpleXLSXGen"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stanl\Desktop\repos\covid-analyzer-py\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C018202-5862-4F49-8622-9B6CAF8551D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="5350" yWindow="3020" windowWidth="19800" windowHeight="10010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="463">
-  <si>
-    <t>Country</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="463">
   <si>
     <t>Date</t>
   </si>
@@ -1398,26 +1406,28 @@
   </si>
   <si>
     <t>111,305</t>
+  </si>
+  <si>
+    <t>country</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b/>
-    </font>
   </fonts>
-  <fills count="1">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1432,72 +1442,375 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33"/>
-    <col min="2" max="2" width="11"/>
-    <col min="3" max="3" width="12"/>
-    <col min="4" max="4" width="12"/>
-    <col min="5" max="5" width="7"/>
-    <col min="6" max="6" width="9"/>
-    <col min="7" max="7" width="12"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="7" max="7" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="D2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s" s="7">
-        <v>10</v>
       </c>
       <c r="E2">
         <v>92.3</v>
@@ -1505,45 +1818,45 @@
       <c r="F2">
         <v>7.7</v>
       </c>
-      <c r="G2" t="s" s="7">
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s" s="7">
-        <v>15</v>
-      </c>
       <c r="E3">
-        <v>76.9</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="F3">
         <v>23.1</v>
       </c>
-      <c r="G3" t="s" s="7">
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="D4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" t="s" s="7">
-        <v>20</v>
       </c>
       <c r="E4">
         <v>72.3</v>
@@ -1551,22 +1864,22 @@
       <c r="F4">
         <v>27.7</v>
       </c>
-      <c r="G4" t="s" s="7">
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="D5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s" s="7">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>69</v>
@@ -1574,91 +1887,91 @@
       <c r="F5">
         <v>31</v>
       </c>
-      <c r="G5" t="s" s="7">
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s" s="7">
-        <v>30</v>
-      </c>
       <c r="E6">
-        <v>65.9</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="F6">
         <v>34.1</v>
       </c>
-      <c r="G6" t="s" s="7">
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s" s="7">
+      <c r="D7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D7" t="s" s="7">
-        <v>34</v>
       </c>
       <c r="E7">
         <v>64.3</v>
       </c>
       <c r="F7">
-        <v>35.7</v>
-      </c>
-      <c r="G7" t="s" s="7">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s" s="7">
+      <c r="D8" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D8" t="s" s="7">
-        <v>39</v>
       </c>
       <c r="E8">
         <v>64.2</v>
       </c>
       <c r="F8">
-        <v>35.8</v>
-      </c>
-      <c r="G8" t="s" s="7">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s" s="7">
+      <c r="D9" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D9" t="s" s="7">
-        <v>44</v>
       </c>
       <c r="E9">
         <v>63.5</v>
@@ -1666,22 +1979,22 @@
       <c r="F9">
         <v>36.5</v>
       </c>
-      <c r="G9" t="s" s="7">
+      <c r="G9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s" s="7">
+      <c r="D10" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D10" t="s" s="7">
-        <v>49</v>
       </c>
       <c r="E10">
         <v>63.4</v>
@@ -1689,22 +2002,22 @@
       <c r="F10">
         <v>36.6</v>
       </c>
-      <c r="G10" t="s" s="7">
+      <c r="G10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s" s="7">
+      <c r="D11" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D11" t="s" s="7">
-        <v>54</v>
       </c>
       <c r="E11">
         <v>62.6</v>
@@ -1712,22 +2025,22 @@
       <c r="F11">
         <v>37.4</v>
       </c>
-      <c r="G11" t="s" s="7">
+      <c r="G11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C12" t="s" s="7">
+      <c r="D12" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D12" t="s" s="7">
-        <v>59</v>
       </c>
       <c r="E12">
         <v>61.1</v>
@@ -1735,22 +2048,22 @@
       <c r="F12">
         <v>38.9</v>
       </c>
-      <c r="G12" t="s" s="7">
+      <c r="G12" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s" s="7">
+      <c r="D13" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D13" t="s" s="7">
-        <v>63</v>
       </c>
       <c r="E13">
         <v>60.6</v>
@@ -1758,22 +2071,22 @@
       <c r="F13">
         <v>39.4</v>
       </c>
-      <c r="G13" t="s" s="7">
+      <c r="G13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s" s="7">
+      <c r="D14" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D14" t="s" s="7">
-        <v>67</v>
       </c>
       <c r="E14">
         <v>60.4</v>
@@ -1781,22 +2094,22 @@
       <c r="F14">
         <v>39.6</v>
       </c>
-      <c r="G14" t="s" s="7">
+      <c r="G14" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s" s="7">
+      <c r="D15" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D15" t="s" s="7">
-        <v>71</v>
       </c>
       <c r="E15">
         <v>58.5</v>
@@ -1804,22 +2117,22 @@
       <c r="F15">
         <v>41.5</v>
       </c>
-      <c r="G15" t="s" s="7">
+      <c r="G15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s" s="7">
+      <c r="D16" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D16" t="s" s="7">
-        <v>75</v>
       </c>
       <c r="E16">
         <v>58.4</v>
@@ -1827,22 +2140,22 @@
       <c r="F16">
         <v>41.6</v>
       </c>
-      <c r="G16" t="s" s="7">
+      <c r="G16" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s" s="7">
+      <c r="D17" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D17" t="s" s="7">
-        <v>79</v>
       </c>
       <c r="E17">
         <v>57</v>
@@ -1850,22 +2163,22 @@
       <c r="F17">
         <v>43</v>
       </c>
-      <c r="G17" t="s" s="7">
+      <c r="G17" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s" s="7">
+      <c r="D18" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D18" t="s" s="7">
-        <v>83</v>
       </c>
       <c r="E18">
         <v>56.1</v>
@@ -1873,22 +2186,22 @@
       <c r="F18">
         <v>43.9</v>
       </c>
-      <c r="G18" t="s" s="7">
+      <c r="G18" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>85</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C19" t="s" s="7">
+      <c r="D19" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D19" t="s" s="7">
-        <v>88</v>
       </c>
       <c r="E19">
         <v>56.1</v>
@@ -1896,22 +2209,22 @@
       <c r="F19">
         <v>43.9</v>
       </c>
-      <c r="G19" t="s" s="7">
+      <c r="G19" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s" s="7">
+      <c r="D20" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D20" t="s" s="7">
-        <v>92</v>
       </c>
       <c r="E20">
         <v>55.8</v>
@@ -1919,22 +2232,22 @@
       <c r="F20">
         <v>44.2</v>
       </c>
-      <c r="G20" t="s" s="7">
+      <c r="G20" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s" s="7">
+      <c r="D21" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D21" t="s" s="7">
-        <v>96</v>
       </c>
       <c r="E21">
         <v>55.6</v>
@@ -1942,22 +2255,22 @@
       <c r="F21">
         <v>44.4</v>
       </c>
-      <c r="G21" t="s" s="7">
+      <c r="G21" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s" s="7">
+      <c r="D22" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="D22" t="s" s="7">
-        <v>100</v>
       </c>
       <c r="E22">
         <v>55.2</v>
@@ -1965,22 +2278,22 @@
       <c r="F22">
         <v>44.8</v>
       </c>
-      <c r="G22" t="s" s="7">
+      <c r="G22" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s" s="7">
+      <c r="D23" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="D23" t="s" s="7">
-        <v>104</v>
       </c>
       <c r="E23">
         <v>54.6</v>
@@ -1988,22 +2301,22 @@
       <c r="F23">
         <v>45.4</v>
       </c>
-      <c r="G23" t="s" s="7">
+      <c r="G23" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s" s="7">
+      <c r="D24" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D24" t="s" s="7">
-        <v>108</v>
       </c>
       <c r="E24">
         <v>54.4</v>
@@ -2011,22 +2324,22 @@
       <c r="F24">
         <v>45.6</v>
       </c>
-      <c r="G24" t="s" s="7">
+      <c r="G24" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s" s="7">
+      <c r="D25" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D25" t="s" s="7">
-        <v>112</v>
       </c>
       <c r="E25">
         <v>53.6</v>
@@ -2034,22 +2347,22 @@
       <c r="F25">
         <v>46.4</v>
       </c>
-      <c r="G25" t="s" s="7">
+      <c r="G25" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>114</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C26" t="s" s="7">
+      <c r="D26" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="D26" t="s" s="7">
-        <v>117</v>
       </c>
       <c r="E26">
         <v>53.5</v>
@@ -2057,22 +2370,22 @@
       <c r="F26">
         <v>46.5</v>
       </c>
-      <c r="G26" t="s" s="7">
+      <c r="G26" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>119</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C27" t="s" s="7">
+      <c r="D27" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D27" t="s" s="7">
-        <v>122</v>
       </c>
       <c r="E27">
         <v>53.1</v>
@@ -2080,22 +2393,22 @@
       <c r="F27">
         <v>46.9</v>
       </c>
-      <c r="G27" t="s" s="7">
+      <c r="G27" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s" s="7">
+      <c r="D28" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D28" t="s" s="7">
-        <v>126</v>
       </c>
       <c r="E28">
         <v>53</v>
@@ -2103,22 +2416,22 @@
       <c r="F28">
         <v>47</v>
       </c>
-      <c r="G28" t="s" s="7">
+      <c r="G28" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" t="s" s="7">
+      <c r="D29" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D29" t="s" s="7">
-        <v>130</v>
       </c>
       <c r="E29">
         <v>53</v>
@@ -2126,22 +2439,22 @@
       <c r="F29">
         <v>47</v>
       </c>
-      <c r="G29" t="s" s="7">
+      <c r="G29" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" t="s" s="7">
+      <c r="D30" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D30" t="s" s="7">
-        <v>134</v>
       </c>
       <c r="E30">
         <v>52.6</v>
@@ -2149,22 +2462,22 @@
       <c r="F30">
         <v>47.4</v>
       </c>
-      <c r="G30" t="s" s="7">
+      <c r="G30" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" t="s" s="7">
+      <c r="D31" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D31" t="s" s="7">
-        <v>138</v>
       </c>
       <c r="E31">
         <v>51.6</v>
@@ -2172,22 +2485,22 @@
       <c r="F31">
         <v>48.4</v>
       </c>
-      <c r="G31" t="s" s="7">
+      <c r="G31" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>140</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C32" t="s" s="7">
+      <c r="D32" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D32" t="s" s="7">
-        <v>143</v>
       </c>
       <c r="E32">
         <v>51.4</v>
@@ -2195,22 +2508,22 @@
       <c r="F32">
         <v>48.6</v>
       </c>
-      <c r="G32" t="s" s="7">
+      <c r="G32" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>145</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C33" t="s" s="7">
+      <c r="D33" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="D33" t="s" s="7">
-        <v>148</v>
       </c>
       <c r="E33">
         <v>51.1</v>
@@ -2218,22 +2531,22 @@
       <c r="F33">
         <v>48.9</v>
       </c>
-      <c r="G33" t="s" s="7">
+      <c r="G33" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>150</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C34" t="s" s="7">
+      <c r="D34" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="D34" t="s" s="7">
-        <v>153</v>
       </c>
       <c r="E34">
         <v>50.7</v>
@@ -2241,22 +2554,22 @@
       <c r="F34">
         <v>49.3</v>
       </c>
-      <c r="G34" t="s" s="7">
+      <c r="G34" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" t="s" s="7">
+      <c r="D35" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D35" t="s" s="7">
-        <v>157</v>
       </c>
       <c r="E35">
         <v>50.7</v>
@@ -2264,22 +2577,22 @@
       <c r="F35">
         <v>49.3</v>
       </c>
-      <c r="G35" t="s" s="7">
+      <c r="G35" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" t="s" s="7">
+      <c r="D36" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="D36" t="s" s="7">
-        <v>161</v>
       </c>
       <c r="E36">
         <v>50.2</v>
@@ -2287,22 +2600,22 @@
       <c r="F36">
         <v>49.8</v>
       </c>
-      <c r="G36" t="s" s="7">
+      <c r="G36" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>163</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C37" t="s" s="7">
+      <c r="D37" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="D37" t="s" s="7">
-        <v>166</v>
       </c>
       <c r="E37">
         <v>50.2</v>
@@ -2310,22 +2623,22 @@
       <c r="F37">
         <v>49.8</v>
       </c>
-      <c r="G37" t="s" s="7">
+      <c r="G37" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>168</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C38" t="s" s="7">
+      <c r="D38" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="D38" t="s" s="7">
-        <v>171</v>
       </c>
       <c r="E38">
         <v>50.1</v>
@@ -2333,22 +2646,22 @@
       <c r="F38">
         <v>49.9</v>
       </c>
-      <c r="G38" t="s" s="7">
+      <c r="G38" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
         <v>173</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C39" t="s" s="7">
-        <v>175</v>
-      </c>
-      <c r="D39" t="s" s="7">
-        <v>175</v>
+      <c r="D39" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="E39">
         <v>50</v>
@@ -2356,22 +2669,22 @@
       <c r="F39">
         <v>50</v>
       </c>
-      <c r="G39" t="s" s="7">
+      <c r="G39" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" t="s" s="7">
+      <c r="D40" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D40" t="s" s="7">
-        <v>179</v>
       </c>
       <c r="E40">
         <v>50</v>
@@ -2379,22 +2692,22 @@
       <c r="F40">
         <v>50</v>
       </c>
-      <c r="G40" t="s" s="7">
+      <c r="G40" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>181</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C41" t="s" s="7">
-        <v>183</v>
-      </c>
-      <c r="D41" t="s" s="7">
-        <v>183</v>
+      <c r="D41" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="E41">
         <v>50</v>
@@ -2402,22 +2715,22 @@
       <c r="F41">
         <v>50</v>
       </c>
-      <c r="G41" t="s" s="7">
+      <c r="G41" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
         <v>185</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C42" t="s" s="7">
+      <c r="D42" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="D42" t="s" s="7">
-        <v>188</v>
       </c>
       <c r="E42">
         <v>49.99</v>
@@ -2425,22 +2738,22 @@
       <c r="F42">
         <v>50.01</v>
       </c>
-      <c r="G42" t="s" s="7">
+      <c r="G42" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>190</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C43" t="s" s="7">
+      <c r="D43" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D43" t="s" s="7">
-        <v>193</v>
       </c>
       <c r="E43">
         <v>49.9</v>
@@ -2448,22 +2761,22 @@
       <c r="F43">
         <v>50.1</v>
       </c>
-      <c r="G43" t="s" s="7">
+      <c r="G43" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" t="s" s="7">
+      <c r="D44" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="D44" t="s" s="7">
-        <v>197</v>
       </c>
       <c r="E44">
         <v>49.8</v>
@@ -2471,22 +2784,22 @@
       <c r="F44">
         <v>50.2</v>
       </c>
-      <c r="G44" t="s" s="7">
+      <c r="G44" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
         <v>199</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C45" t="s" s="7">
+      <c r="D45" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="D45" t="s" s="7">
-        <v>202</v>
       </c>
       <c r="E45">
         <v>49.6</v>
@@ -2494,22 +2807,22 @@
       <c r="F45">
         <v>51.4</v>
       </c>
-      <c r="G45" t="s" s="7">
+      <c r="G45" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" t="s" s="7">
+      <c r="D46" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="D46" t="s" s="7">
-        <v>206</v>
       </c>
       <c r="E46">
         <v>49.5</v>
@@ -2517,22 +2830,22 @@
       <c r="F46">
         <v>50.5</v>
       </c>
-      <c r="G46" t="s" s="7">
+      <c r="G46" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" t="s" s="7">
+      <c r="D47" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="D47" t="s" s="7">
-        <v>210</v>
       </c>
       <c r="E47">
         <v>49.5</v>
@@ -2540,22 +2853,22 @@
       <c r="F47">
         <v>50.5</v>
       </c>
-      <c r="G47" t="s" s="7">
+      <c r="G47" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B48" t="s">
-        <v>186</v>
-      </c>
-      <c r="C48" t="s" s="7">
+      <c r="D48" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="D48" t="s" s="7">
-        <v>214</v>
       </c>
       <c r="E48">
         <v>49.47</v>
@@ -2563,22 +2876,22 @@
       <c r="F48">
         <v>50.53</v>
       </c>
-      <c r="G48" t="s" s="7">
+      <c r="G48" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
         <v>216</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C49" t="s" s="7">
+      <c r="D49" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="D49" t="s" s="7">
-        <v>219</v>
       </c>
       <c r="E49">
         <v>49.44</v>
@@ -2586,22 +2899,22 @@
       <c r="F49">
         <v>50.56</v>
       </c>
-      <c r="G49" t="s" s="7">
+      <c r="G49" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B50" t="s">
-        <v>151</v>
-      </c>
-      <c r="C50" t="s" s="7">
+      <c r="D50" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="D50" t="s" s="7">
-        <v>223</v>
       </c>
       <c r="E50">
         <v>49.42</v>
@@ -2609,22 +2922,22 @@
       <c r="F50">
         <v>50.58</v>
       </c>
-      <c r="G50" t="s" s="7">
+      <c r="G50" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B51" t="s">
-        <v>217</v>
-      </c>
-      <c r="C51" t="s" s="7">
+      <c r="D51" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="D51" t="s" s="7">
-        <v>227</v>
       </c>
       <c r="E51">
         <v>49.41</v>
@@ -2632,22 +2945,22 @@
       <c r="F51">
         <v>50.59</v>
       </c>
-      <c r="G51" t="s" s="7">
+      <c r="G51" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
         <v>229</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C52" t="s" s="7">
+      <c r="D52" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="D52" t="s" s="7">
-        <v>232</v>
       </c>
       <c r="E52">
         <v>49.4</v>
@@ -2655,22 +2968,22 @@
       <c r="F52">
         <v>50.6</v>
       </c>
-      <c r="G52" t="s" s="7">
+      <c r="G52" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
         <v>234</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C53" t="s" s="7">
+      <c r="D53" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="D53" t="s" s="7">
-        <v>237</v>
       </c>
       <c r="E53">
         <v>49.33</v>
@@ -2678,22 +2991,22 @@
       <c r="F53">
         <v>50.67</v>
       </c>
-      <c r="G53" t="s" s="7">
+      <c r="G53" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B54" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" t="s" s="7">
+      <c r="D54" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="D54" t="s" s="7">
-        <v>241</v>
       </c>
       <c r="E54">
         <v>49.3</v>
@@ -2701,22 +3014,22 @@
       <c r="F54">
         <v>50.7</v>
       </c>
-      <c r="G54" t="s" s="7">
+      <c r="G54" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B55" t="s">
-        <v>217</v>
-      </c>
-      <c r="C55" t="s" s="7">
+      <c r="D55" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="D55" t="s" s="7">
-        <v>245</v>
       </c>
       <c r="E55">
         <v>49.3</v>
@@ -2724,22 +3037,22 @@
       <c r="F55">
         <v>50.7</v>
       </c>
-      <c r="G55" t="s" s="7">
+      <c r="G55" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
         <v>247</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C56" t="s" s="7">
+      <c r="D56" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="D56" t="s" s="7">
-        <v>250</v>
       </c>
       <c r="E56">
         <v>49.25</v>
@@ -2747,22 +3060,22 @@
       <c r="F56">
         <v>50.75</v>
       </c>
-      <c r="G56" t="s" s="7">
+      <c r="G56" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" t="s" s="7">
+      <c r="D57" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="D57" t="s" s="7">
-        <v>254</v>
       </c>
       <c r="E57">
         <v>49.2</v>
@@ -2770,22 +3083,22 @@
       <c r="F57">
         <v>50.8</v>
       </c>
-      <c r="G57" t="s" s="7">
+      <c r="G57" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B58" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" t="s" s="7">
+      <c r="D58" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="D58" t="s" s="7">
-        <v>258</v>
       </c>
       <c r="E58">
         <v>49.2</v>
@@ -2793,22 +3106,22 @@
       <c r="F58">
         <v>50.8</v>
       </c>
-      <c r="G58" t="s" s="7">
+      <c r="G58" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B59" t="s">
-        <v>169</v>
-      </c>
-      <c r="C59" t="s" s="7">
+      <c r="D59" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="D59" t="s" s="7">
-        <v>262</v>
       </c>
       <c r="E59">
         <v>49.1</v>
@@ -2816,22 +3129,22 @@
       <c r="F59">
         <v>50.9</v>
       </c>
-      <c r="G59" t="s" s="7">
+      <c r="G59" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
         <v>264</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C60" t="s" s="7">
+      <c r="D60" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="D60" t="s" s="7">
-        <v>267</v>
       </c>
       <c r="E60">
         <v>49.1</v>
@@ -2839,22 +3152,22 @@
       <c r="F60">
         <v>50.9</v>
       </c>
-      <c r="G60" t="s" s="7">
+      <c r="G60" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
         <v>269</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C61" t="s" s="7">
+      <c r="D61" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="D61" t="s" s="7">
-        <v>272</v>
       </c>
       <c r="E61">
         <v>49.09</v>
@@ -2862,22 +3175,22 @@
       <c r="F61">
         <v>50.91</v>
       </c>
-      <c r="G61" t="s" s="7">
+      <c r="G61" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
+      <c r="B62" t="s">
         <v>274</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C62" t="s" s="7">
+      <c r="D62" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="D62" t="s" s="7">
-        <v>277</v>
       </c>
       <c r="E62">
         <v>48.9</v>
@@ -2885,22 +3198,22 @@
       <c r="F62">
         <v>51.1</v>
       </c>
-      <c r="G62" t="s" s="7">
+      <c r="G62" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B63" t="s">
-        <v>52</v>
-      </c>
-      <c r="C63" t="s" s="7">
+      <c r="D63" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="D63" t="s" s="7">
-        <v>281</v>
       </c>
       <c r="E63">
         <v>48.9</v>
@@ -2908,22 +3221,22 @@
       <c r="F63">
         <v>51.1</v>
       </c>
-      <c r="G63" t="s" s="7">
+      <c r="G63" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
         <v>283</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C64" t="s" s="7">
+      <c r="D64" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="D64" t="s" s="7">
-        <v>286</v>
       </c>
       <c r="E64">
         <v>48.9</v>
@@ -2931,22 +3244,22 @@
       <c r="F64">
         <v>51.1</v>
       </c>
-      <c r="G64" t="s" s="7">
+      <c r="G64" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
         <v>288</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C65" t="s" s="7">
+      <c r="D65" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="D65" t="s" s="7">
-        <v>291</v>
       </c>
       <c r="E65">
         <v>48.8</v>
@@ -2954,22 +3267,22 @@
       <c r="F65">
         <v>51.2</v>
       </c>
-      <c r="G65" t="s" s="7">
+      <c r="G65" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B66" t="s">
-        <v>47</v>
-      </c>
-      <c r="C66" t="s" s="7">
+      <c r="D66" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="D66" t="s" s="7">
-        <v>295</v>
       </c>
       <c r="E66">
         <v>48.8</v>
@@ -2977,22 +3290,22 @@
       <c r="F66">
         <v>51.2</v>
       </c>
-      <c r="G66" t="s" s="7">
+      <c r="G66" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B67" t="s">
-        <v>47</v>
-      </c>
-      <c r="C67" t="s" s="7">
+      <c r="D67" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="D67" t="s" s="7">
-        <v>299</v>
       </c>
       <c r="E67">
         <v>48.7</v>
@@ -3000,22 +3313,22 @@
       <c r="F67">
         <v>51.3</v>
       </c>
-      <c r="G67" t="s" s="7">
+      <c r="G67" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B68" t="s">
-        <v>52</v>
-      </c>
-      <c r="C68" t="s" s="7">
+      <c r="D68" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="D68" t="s" s="7">
-        <v>303</v>
       </c>
       <c r="E68">
         <v>48.6</v>
@@ -3023,22 +3336,22 @@
       <c r="F68">
         <v>51.4</v>
       </c>
-      <c r="G68" t="s" s="7">
+      <c r="G68" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
         <v>305</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C69" t="s" s="7">
+      <c r="D69" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="D69" t="s" s="7">
-        <v>308</v>
       </c>
       <c r="E69">
         <v>48.6</v>
@@ -3046,22 +3359,22 @@
       <c r="F69">
         <v>51.4</v>
       </c>
-      <c r="G69" t="s" s="7">
+      <c r="G69" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" t="s" s="7">
+      <c r="D70" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="D70" t="s" s="7">
-        <v>312</v>
       </c>
       <c r="E70">
         <v>48.6</v>
@@ -3069,22 +3382,22 @@
       <c r="F70">
         <v>51.4</v>
       </c>
-      <c r="G70" t="s" s="7">
+      <c r="G70" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B71" t="s">
-        <v>47</v>
-      </c>
-      <c r="C71" t="s" s="7">
+      <c r="D71" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="D71" t="s" s="7">
-        <v>316</v>
       </c>
       <c r="E71">
         <v>48.5</v>
@@ -3092,22 +3405,22 @@
       <c r="F71">
         <v>51.5</v>
       </c>
-      <c r="G71" t="s" s="7">
+      <c r="G71" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B72" t="s">
-        <v>151</v>
-      </c>
-      <c r="C72" t="s" s="7">
+      <c r="D72" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="D72" t="s" s="7">
-        <v>320</v>
       </c>
       <c r="E72">
         <v>48.44</v>
@@ -3115,22 +3428,22 @@
       <c r="F72">
         <v>51.56</v>
       </c>
-      <c r="G72" t="s" s="7">
+      <c r="G72" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B73" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" t="s" s="7">
+      <c r="D73" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="D73" t="s" s="7">
-        <v>324</v>
       </c>
       <c r="E73">
         <v>48.4</v>
@@ -3138,22 +3451,22 @@
       <c r="F73">
         <v>51.6</v>
       </c>
-      <c r="G73" t="s" s="7">
+      <c r="G73" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
         <v>326</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C74" t="s" s="7">
+      <c r="D74" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="D74" t="s" s="7">
-        <v>329</v>
       </c>
       <c r="E74">
         <v>48.34</v>
@@ -3161,22 +3474,22 @@
       <c r="F74">
         <v>51.66</v>
       </c>
-      <c r="G74" t="s" s="7">
+      <c r="G74" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
+      <c r="B75" t="s">
         <v>331</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C75" t="s" s="7">
+      <c r="D75" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="D75" t="s" s="7">
-        <v>334</v>
       </c>
       <c r="E75">
         <v>48.27</v>
@@ -3184,22 +3497,22 @@
       <c r="F75">
         <v>51.73</v>
       </c>
-      <c r="G75" t="s" s="7">
+      <c r="G75" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B76" t="s">
-        <v>47</v>
-      </c>
-      <c r="C76" t="s" s="7">
+      <c r="D76" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="D76" t="s" s="7">
-        <v>338</v>
       </c>
       <c r="E76">
         <v>48.2</v>
@@ -3207,22 +3520,22 @@
       <c r="F76">
         <v>51.8</v>
       </c>
-      <c r="G76" t="s" s="7">
+      <c r="G76" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
+      <c r="B77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B77" t="s">
-        <v>52</v>
-      </c>
-      <c r="C77" t="s" s="7">
+      <c r="D77" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="D77" t="s" s="7">
-        <v>342</v>
       </c>
       <c r="E77">
         <v>48.1</v>
@@ -3230,22 +3543,22 @@
       <c r="F77">
         <v>51.9</v>
       </c>
-      <c r="G77" t="s" s="7">
+      <c r="G77" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
+      <c r="B78" t="s">
         <v>344</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C78" t="s" s="7">
+      <c r="D78" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="D78" t="s" s="7">
-        <v>347</v>
       </c>
       <c r="E78">
         <v>48.1</v>
@@ -3253,22 +3566,22 @@
       <c r="F78">
         <v>51.9</v>
       </c>
-      <c r="G78" t="s" s="7">
+      <c r="G78" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B79" t="s">
-        <v>28</v>
-      </c>
-      <c r="C79" t="s" s="7">
+      <c r="D79" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="D79" t="s" s="7">
-        <v>351</v>
       </c>
       <c r="E79">
         <v>48</v>
@@ -3276,22 +3589,22 @@
       <c r="F79">
         <v>52</v>
       </c>
-      <c r="G79" t="s" s="7">
+      <c r="G79" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
+      <c r="B80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B80" t="s">
-        <v>28</v>
-      </c>
-      <c r="C80" t="s" s="7">
+      <c r="D80" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="D80" t="s" s="7">
-        <v>355</v>
       </c>
       <c r="E80">
         <v>47.9</v>
@@ -3299,22 +3612,22 @@
       <c r="F80">
         <v>52.1</v>
       </c>
-      <c r="G80" t="s" s="7">
+      <c r="G80" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
+      <c r="B81" t="s">
         <v>357</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C81" t="s" s="7">
+      <c r="D81" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="D81" t="s" s="7">
-        <v>360</v>
       </c>
       <c r="E81">
         <v>47.9</v>
@@ -3322,22 +3635,22 @@
       <c r="F81">
         <v>52.1</v>
       </c>
-      <c r="G81" t="s" s="7">
+      <c r="G81" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B82" t="s">
-        <v>47</v>
-      </c>
-      <c r="C82" t="s" s="7">
+      <c r="D82" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="D82" t="s" s="7">
-        <v>364</v>
       </c>
       <c r="E82">
         <v>47.8</v>
@@ -3345,22 +3658,22 @@
       <c r="F82">
         <v>52.2</v>
       </c>
-      <c r="G82" t="s" s="7">
+      <c r="G82" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
+      <c r="B83" t="s">
         <v>366</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C83" t="s" s="7">
+      <c r="D83" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="D83" t="s" s="7">
-        <v>369</v>
       </c>
       <c r="E83">
         <v>47.6</v>
@@ -3368,22 +3681,22 @@
       <c r="F83">
         <v>52.4</v>
       </c>
-      <c r="G83" t="s" s="7">
+      <c r="G83" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
+      <c r="B84" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B84" t="s">
-        <v>52</v>
-      </c>
-      <c r="C84" t="s" s="7">
+      <c r="D84" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="D84" t="s" s="7">
-        <v>373</v>
       </c>
       <c r="E84">
         <v>47.5</v>
@@ -3391,22 +3704,22 @@
       <c r="F84">
         <v>52.5</v>
       </c>
-      <c r="G84" t="s" s="7">
+      <c r="G84" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B85" t="s">
-        <v>28</v>
-      </c>
-      <c r="C85" t="s" s="7">
+      <c r="D85" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="D85" t="s" s="7">
-        <v>377</v>
       </c>
       <c r="E85">
         <v>47.5</v>
@@ -3414,22 +3727,22 @@
       <c r="F85">
         <v>52.5</v>
       </c>
-      <c r="G85" t="s" s="7">
+      <c r="G85" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B86" t="s">
-        <v>28</v>
-      </c>
-      <c r="C86" t="s" s="7">
+      <c r="D86" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="D86" t="s" s="7">
-        <v>381</v>
       </c>
       <c r="E86">
         <v>47</v>
@@ -3437,22 +3750,22 @@
       <c r="F86">
         <v>53</v>
       </c>
-      <c r="G86" t="s" s="7">
+      <c r="G86" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
+      <c r="B87" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B87" t="s">
-        <v>52</v>
-      </c>
-      <c r="C87" t="s" s="7">
+      <c r="D87" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="D87" t="s" s="7">
-        <v>385</v>
       </c>
       <c r="E87">
         <v>46.5</v>
@@ -3460,22 +3773,22 @@
       <c r="F87">
         <v>53.5</v>
       </c>
-      <c r="G87" t="s" s="7">
+      <c r="G87" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
+      <c r="B88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B88" t="s">
-        <v>28</v>
-      </c>
-      <c r="C88" t="s" s="7">
+      <c r="D88" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="D88" t="s" s="7">
-        <v>389</v>
       </c>
       <c r="E88">
         <v>45.7</v>
@@ -3483,22 +3796,22 @@
       <c r="F88">
         <v>54.3</v>
       </c>
-      <c r="G88" t="s" s="7">
+      <c r="G88" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
+      <c r="B89" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B89" t="s">
-        <v>28</v>
-      </c>
-      <c r="C89" t="s" s="7">
+      <c r="D89" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="D89" t="s" s="7">
-        <v>393</v>
       </c>
       <c r="E89">
         <v>45.6</v>
@@ -3506,22 +3819,22 @@
       <c r="F89">
         <v>54.4</v>
       </c>
-      <c r="G89" t="s" s="7">
+      <c r="G89" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
+      <c r="B90" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B90" t="s">
-        <v>52</v>
-      </c>
-      <c r="C90" t="s" s="7">
+      <c r="D90" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="D90" t="s" s="7">
-        <v>397</v>
       </c>
       <c r="E90">
         <v>45.3</v>
@@ -3529,22 +3842,22 @@
       <c r="F90">
         <v>54.7</v>
       </c>
-      <c r="G90" t="s" s="7">
+      <c r="G90" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
+      <c r="B91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B91" t="s">
-        <v>23</v>
-      </c>
-      <c r="C91" t="s" s="7">
+      <c r="D91" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="D91" t="s" s="7">
-        <v>401</v>
       </c>
       <c r="E91">
         <v>45</v>
@@ -3552,22 +3865,22 @@
       <c r="F91">
         <v>55</v>
       </c>
-      <c r="G91" t="s" s="7">
+      <c r="G91" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
+      <c r="B92" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B92" t="s">
-        <v>47</v>
-      </c>
-      <c r="C92" t="s" s="7">
+      <c r="D92" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="D92" t="s" s="7">
-        <v>405</v>
       </c>
       <c r="E92">
         <v>45</v>
@@ -3575,22 +3888,22 @@
       <c r="F92">
         <v>55</v>
       </c>
-      <c r="G92" t="s" s="7">
+      <c r="G92" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
+      <c r="B93" t="s">
+        <v>85</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B93" t="s">
-        <v>86</v>
-      </c>
-      <c r="C93" t="s" s="7">
+      <c r="D93" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="D93" t="s" s="7">
-        <v>409</v>
       </c>
       <c r="E93">
         <v>44.8</v>
@@ -3598,22 +3911,22 @@
       <c r="F93">
         <v>55.2</v>
       </c>
-      <c r="G93" t="s" s="7">
+      <c r="G93" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
+      <c r="B94" t="s">
+        <v>264</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B94" t="s">
-        <v>265</v>
-      </c>
-      <c r="C94" t="s" s="7">
+      <c r="D94" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="D94" t="s" s="7">
-        <v>413</v>
       </c>
       <c r="E94">
         <v>44.8</v>
@@ -3621,22 +3934,22 @@
       <c r="F94">
         <v>55.2</v>
       </c>
-      <c r="G94" t="s" s="7">
+      <c r="G94" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
+      <c r="B95" t="s">
+        <v>51</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B95" t="s">
-        <v>52</v>
-      </c>
-      <c r="C95" t="s" s="7">
+      <c r="D95" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="D95" t="s" s="7">
-        <v>417</v>
       </c>
       <c r="E95">
         <v>44.5</v>
@@ -3644,22 +3957,22 @@
       <c r="F95">
         <v>55.5</v>
       </c>
-      <c r="G95" t="s" s="7">
+      <c r="G95" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
+      <c r="B96" t="s">
+        <v>234</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B96" t="s">
-        <v>235</v>
-      </c>
-      <c r="C96" t="s" s="7">
+      <c r="D96" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="D96" t="s" s="7">
-        <v>421</v>
       </c>
       <c r="E96">
         <v>44.49</v>
@@ -3667,22 +3980,22 @@
       <c r="F96">
         <v>55.51</v>
       </c>
-      <c r="G96" t="s" s="7">
+      <c r="G96" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
+      <c r="B97" t="s">
+        <v>51</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B97" t="s">
-        <v>52</v>
-      </c>
-      <c r="C97" t="s" s="7">
+      <c r="D97" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="D97" t="s" s="7">
-        <v>425</v>
       </c>
       <c r="E97">
         <v>44.3</v>
@@ -3690,22 +4003,22 @@
       <c r="F97">
         <v>55.7</v>
       </c>
-      <c r="G97" t="s" s="7">
+      <c r="G97" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
+      <c r="B98" t="s">
+        <v>51</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B98" t="s">
-        <v>52</v>
-      </c>
-      <c r="C98" t="s" s="7">
+      <c r="D98" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="D98" t="s" s="7">
-        <v>429</v>
       </c>
       <c r="E98">
         <v>44</v>
@@ -3713,22 +4026,22 @@
       <c r="F98">
         <v>56</v>
       </c>
-      <c r="G98" t="s" s="7">
+      <c r="G98" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
+      <c r="B99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B99" t="s">
-        <v>28</v>
-      </c>
-      <c r="C99" t="s" s="7">
+      <c r="D99" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="D99" t="s" s="7">
-        <v>433</v>
       </c>
       <c r="E99">
         <v>43.7</v>
@@ -3736,22 +4049,22 @@
       <c r="F99">
         <v>56.3</v>
       </c>
-      <c r="G99" t="s" s="7">
+      <c r="G99" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
+      <c r="B100" t="s">
+        <v>357</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B100" t="s">
-        <v>358</v>
-      </c>
-      <c r="C100" t="s" s="7">
+      <c r="D100" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="D100" t="s" s="7">
-        <v>437</v>
       </c>
       <c r="E100">
         <v>43.5</v>
@@ -3759,22 +4072,22 @@
       <c r="F100">
         <v>56.5</v>
       </c>
-      <c r="G100" t="s" s="7">
+      <c r="G100" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
+      <c r="B101" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B101" t="s">
-        <v>28</v>
-      </c>
-      <c r="C101" t="s" s="7">
+      <c r="D101" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="D101" t="s" s="7">
-        <v>441</v>
       </c>
       <c r="E101">
         <v>43.4</v>
@@ -3782,22 +4095,22 @@
       <c r="F101">
         <v>56.6</v>
       </c>
-      <c r="G101" t="s" s="7">
+      <c r="G101" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
+      <c r="B102" t="s">
+        <v>190</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B102" t="s">
-        <v>191</v>
-      </c>
-      <c r="C102" t="s" s="7">
+      <c r="D102" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="D102" t="s" s="7">
-        <v>445</v>
       </c>
       <c r="E102">
         <v>43.4</v>
@@ -3805,22 +4118,22 @@
       <c r="F102">
         <v>56.6</v>
       </c>
-      <c r="G102" t="s" s="7">
+      <c r="G102" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
+      <c r="B103" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B103" t="s">
-        <v>86</v>
-      </c>
-      <c r="C103" t="s" s="7">
+      <c r="D103" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="D103" t="s" s="7">
-        <v>449</v>
       </c>
       <c r="E103">
         <v>42.5</v>
@@ -3828,45 +4141,45 @@
       <c r="F103">
         <v>57.5</v>
       </c>
-      <c r="G103" t="s" s="7">
+      <c r="G103" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
+      <c r="B104" t="s">
+        <v>56</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B104" t="s">
-        <v>57</v>
-      </c>
-      <c r="C104" t="s" s="7">
+      <c r="D104" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D104" t="s" s="7">
-        <v>453</v>
-      </c>
       <c r="E104">
-        <v>40.3</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="F104">
         <v>59.7</v>
       </c>
-      <c r="G104" t="s" s="7">
+      <c r="G104" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
+      <c r="B105" t="s">
+        <v>163</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B105" t="s">
-        <v>164</v>
-      </c>
-      <c r="C105" t="s" s="7">
+      <c r="D105" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="D105" t="s" s="7">
-        <v>457</v>
       </c>
       <c r="E105">
         <v>39</v>
@@ -3874,22 +4187,22 @@
       <c r="F105">
         <v>61</v>
       </c>
-      <c r="G105" t="s" s="7">
+      <c r="G105" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
+      <c r="B106" t="s">
+        <v>51</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B106" t="s">
-        <v>52</v>
-      </c>
-      <c r="C106" t="s" s="7">
+      <c r="D106" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="D106" t="s" s="7">
-        <v>461</v>
       </c>
       <c r="E106">
         <v>37.4</v>
@@ -3897,10 +4210,11 @@
       <c r="F106">
         <v>62.6</v>
       </c>
-      <c r="G106" t="s" s="7">
-        <v>462</v>
+      <c r="G106" s="1" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/full_vaccinations.xlsx
+++ b/full_vaccinations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stanl\Desktop\repos\covid-analyzer-py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C018202-5862-4F49-8622-9B6CAF8551D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60515413-F71E-4B13-BF49-A54B30E966EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5350" yWindow="3020" windowWidth="19800" windowHeight="10010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,9 +454,6 @@
     <t>23,749,997</t>
   </si>
   <si>
-    <t>DRC</t>
-  </si>
-  <si>
     <t>11/30/2021</t>
   </si>
   <si>
@@ -1117,9 +1114,6 @@
     <t>1,994,071</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
     <t>6/17/2022</t>
   </si>
   <si>
@@ -1409,6 +1403,12 @@
   </si>
   <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>Drc</t>
+  </si>
+  <si>
+    <t>Usa</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1763,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1778,7 +1780,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2514,16 +2516,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>461</v>
+      </c>
+      <c r="B33" t="s">
         <v>144</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="E33">
         <v>51.1</v>
@@ -2532,21 +2534,21 @@
         <v>48.9</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" t="s">
         <v>149</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="E34">
         <v>50.7</v>
@@ -2555,21 +2557,21 @@
         <v>49.3</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="E35">
         <v>50.7</v>
@@ -2578,21 +2580,21 @@
         <v>49.3</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B36" t="s">
         <v>51</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="E36">
         <v>50.2</v>
@@ -2601,21 +2603,21 @@
         <v>49.8</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" t="s">
         <v>162</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="E37">
         <v>50.2</v>
@@ -2624,21 +2626,21 @@
         <v>49.8</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" t="s">
         <v>167</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="E38">
         <v>50.1</v>
@@ -2647,21 +2649,21 @@
         <v>49.9</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" t="s">
         <v>172</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E39">
         <v>50</v>
@@ -2670,21 +2672,21 @@
         <v>50</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="E40">
         <v>50</v>
@@ -2693,21 +2695,21 @@
         <v>50</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" t="s">
         <v>180</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E41">
         <v>50</v>
@@ -2716,21 +2718,21 @@
         <v>50</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" t="s">
         <v>184</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="E42">
         <v>49.99</v>
@@ -2739,21 +2741,21 @@
         <v>50.01</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" t="s">
         <v>189</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="E43">
         <v>49.9</v>
@@ -2762,21 +2764,21 @@
         <v>50.1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B44" t="s">
         <v>27</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="E44">
         <v>49.8</v>
@@ -2785,21 +2787,21 @@
         <v>50.2</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" t="s">
         <v>198</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="E45">
         <v>49.6</v>
@@ -2808,21 +2810,21 @@
         <v>51.4</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="E46">
         <v>49.5</v>
@@ -2831,21 +2833,21 @@
         <v>50.5</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="E47">
         <v>49.5</v>
@@ -2854,21 +2856,21 @@
         <v>50.5</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B48" t="s">
-        <v>185</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="E48">
         <v>49.47</v>
@@ -2877,21 +2879,21 @@
         <v>50.53</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>214</v>
+      </c>
+      <c r="B49" t="s">
         <v>215</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="E49">
         <v>49.44</v>
@@ -2900,21 +2902,21 @@
         <v>50.56</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B50" t="s">
-        <v>150</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="E50">
         <v>49.42</v>
@@ -2923,21 +2925,21 @@
         <v>50.58</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>223</v>
+      </c>
+      <c r="B51" t="s">
+        <v>215</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B51" t="s">
-        <v>216</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="E51">
         <v>49.41</v>
@@ -2946,21 +2948,21 @@
         <v>50.59</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52" t="s">
         <v>228</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="E52">
         <v>49.4</v>
@@ -2969,21 +2971,21 @@
         <v>50.6</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>232</v>
+      </c>
+      <c r="B53" t="s">
         <v>233</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="E53">
         <v>49.33</v>
@@ -2992,21 +2994,21 @@
         <v>50.67</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B54" t="s">
         <v>46</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="E54">
         <v>49.3</v>
@@ -3015,21 +3017,21 @@
         <v>50.7</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>241</v>
+      </c>
+      <c r="B55" t="s">
+        <v>215</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B55" t="s">
-        <v>216</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="E55">
         <v>49.3</v>
@@ -3038,21 +3040,21 @@
         <v>50.7</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>245</v>
+      </c>
+      <c r="B56" t="s">
         <v>246</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="E56">
         <v>49.25</v>
@@ -3061,21 +3063,21 @@
         <v>50.75</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B57" t="s">
         <v>51</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="E57">
         <v>49.2</v>
@@ -3084,21 +3086,21 @@
         <v>50.8</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B58" t="s">
         <v>51</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="E58">
         <v>49.2</v>
@@ -3107,21 +3109,21 @@
         <v>50.8</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>258</v>
+      </c>
+      <c r="B59" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B59" t="s">
-        <v>168</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="E59">
         <v>49.1</v>
@@ -3130,21 +3132,21 @@
         <v>50.9</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>262</v>
+      </c>
+      <c r="B60" t="s">
         <v>263</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="E60">
         <v>49.1</v>
@@ -3153,21 +3155,21 @@
         <v>50.9</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>267</v>
+      </c>
+      <c r="B61" t="s">
         <v>268</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="E61">
         <v>49.09</v>
@@ -3176,21 +3178,21 @@
         <v>50.91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>272</v>
+      </c>
+      <c r="B62" t="s">
         <v>273</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="E62">
         <v>48.9</v>
@@ -3199,21 +3201,21 @@
         <v>51.1</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B63" t="s">
         <v>51</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="E63">
         <v>48.9</v>
@@ -3222,21 +3224,21 @@
         <v>51.1</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>281</v>
+      </c>
+      <c r="B64" t="s">
         <v>282</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="E64">
         <v>48.9</v>
@@ -3245,21 +3247,21 @@
         <v>51.1</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>286</v>
+      </c>
+      <c r="B65" t="s">
         <v>287</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="E65">
         <v>48.8</v>
@@ -3268,21 +3270,21 @@
         <v>51.2</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B66" t="s">
         <v>46</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="E66">
         <v>48.8</v>
@@ -3291,21 +3293,21 @@
         <v>51.2</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B67" t="s">
         <v>46</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="E67">
         <v>48.7</v>
@@ -3314,21 +3316,21 @@
         <v>51.3</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B68" t="s">
         <v>51</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="E68">
         <v>48.6</v>
@@ -3337,21 +3339,21 @@
         <v>51.4</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>303</v>
+      </c>
+      <c r="B69" t="s">
         <v>304</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="E69">
         <v>48.6</v>
@@ -3360,21 +3362,21 @@
         <v>51.4</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B70" t="s">
         <v>17</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="E70">
         <v>48.6</v>
@@ -3383,21 +3385,21 @@
         <v>51.4</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B71" t="s">
         <v>46</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="E71">
         <v>48.5</v>
@@ -3406,21 +3408,21 @@
         <v>51.5</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>316</v>
+      </c>
+      <c r="B72" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B72" t="s">
-        <v>150</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="E72">
         <v>48.44</v>
@@ -3429,21 +3431,21 @@
         <v>51.56</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B73" t="s">
         <v>27</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="E73">
         <v>48.4</v>
@@ -3452,21 +3454,21 @@
         <v>51.6</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>324</v>
+      </c>
+      <c r="B74" t="s">
         <v>325</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="E74">
         <v>48.34</v>
@@ -3475,21 +3477,21 @@
         <v>51.66</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>329</v>
+      </c>
+      <c r="B75" t="s">
         <v>330</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="E75">
         <v>48.27</v>
@@ -3498,21 +3500,21 @@
         <v>51.73</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B76" t="s">
         <v>46</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="E76">
         <v>48.2</v>
@@ -3521,21 +3523,21 @@
         <v>51.8</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B77" t="s">
         <v>51</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="E77">
         <v>48.1</v>
@@ -3544,21 +3546,21 @@
         <v>51.9</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>342</v>
+      </c>
+      <c r="B78" t="s">
         <v>343</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="E78">
         <v>48.1</v>
@@ -3567,21 +3569,21 @@
         <v>51.9</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B79" t="s">
         <v>27</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="E79">
         <v>48</v>
@@ -3590,21 +3592,21 @@
         <v>52</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B80" t="s">
         <v>27</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="E80">
         <v>47.9</v>
@@ -3613,21 +3615,21 @@
         <v>52.1</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>355</v>
+      </c>
+      <c r="B81" t="s">
         <v>356</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="E81">
         <v>47.9</v>
@@ -3636,21 +3638,21 @@
         <v>52.1</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B82" t="s">
         <v>46</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="E82">
         <v>47.8</v>
@@ -3659,21 +3661,21 @@
         <v>52.2</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>462</v>
+      </c>
+      <c r="B83" t="s">
+        <v>364</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B83" t="s">
+      <c r="D83" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="E83">
         <v>47.6</v>
@@ -3682,21 +3684,21 @@
         <v>52.4</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B84" t="s">
         <v>51</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E84">
         <v>47.5</v>
@@ -3705,21 +3707,21 @@
         <v>52.5</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B85" t="s">
         <v>27</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E85">
         <v>47.5</v>
@@ -3728,21 +3730,21 @@
         <v>52.5</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B86" t="s">
         <v>27</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E86">
         <v>47</v>
@@ -3751,21 +3753,21 @@
         <v>53</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B87" t="s">
         <v>51</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E87">
         <v>46.5</v>
@@ -3774,21 +3776,21 @@
         <v>53.5</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B88" t="s">
         <v>27</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E88">
         <v>45.7</v>
@@ -3797,21 +3799,21 @@
         <v>54.3</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B89" t="s">
         <v>27</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E89">
         <v>45.6</v>
@@ -3820,21 +3822,21 @@
         <v>54.4</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B90" t="s">
         <v>51</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E90">
         <v>45.3</v>
@@ -3843,21 +3845,21 @@
         <v>54.7</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B91" t="s">
         <v>22</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E91">
         <v>45</v>
@@ -3866,21 +3868,21 @@
         <v>55</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B92" t="s">
         <v>46</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E92">
         <v>45</v>
@@ -3889,21 +3891,21 @@
         <v>55</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B93" t="s">
         <v>85</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E93">
         <v>44.8</v>
@@ -3912,21 +3914,21 @@
         <v>55.2</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
+        <v>408</v>
+      </c>
+      <c r="B94" t="s">
+        <v>263</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="B94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="E94">
         <v>44.8</v>
@@ -3935,21 +3937,21 @@
         <v>55.2</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B95" t="s">
         <v>51</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E95">
         <v>44.5</v>
@@ -3958,21 +3960,21 @@
         <v>55.5</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
+        <v>416</v>
+      </c>
+      <c r="B96" t="s">
+        <v>233</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="B96" t="s">
-        <v>234</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="E96">
         <v>44.49</v>
@@ -3981,21 +3983,21 @@
         <v>55.51</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B97" t="s">
         <v>51</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E97">
         <v>44.3</v>
@@ -4004,21 +4006,21 @@
         <v>55.7</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B98" t="s">
         <v>51</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E98">
         <v>44</v>
@@ -4027,21 +4029,21 @@
         <v>56</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B99" t="s">
         <v>27</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E99">
         <v>43.7</v>
@@ -4050,21 +4052,21 @@
         <v>56.3</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>432</v>
+      </c>
+      <c r="B100" t="s">
+        <v>356</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="B100" t="s">
-        <v>357</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="E100">
         <v>43.5</v>
@@ -4073,21 +4075,21 @@
         <v>56.5</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B101" t="s">
         <v>27</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E101">
         <v>43.4</v>
@@ -4096,21 +4098,21 @@
         <v>56.6</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>440</v>
+      </c>
+      <c r="B102" t="s">
+        <v>189</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="B102" t="s">
-        <v>190</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="E102">
         <v>43.4</v>
@@ -4119,21 +4121,21 @@
         <v>56.6</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B103" t="s">
         <v>85</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E103">
         <v>42.5</v>
@@ -4142,21 +4144,21 @@
         <v>57.5</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B104" t="s">
         <v>56</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E104">
         <v>40.299999999999997</v>
@@ -4165,21 +4167,21 @@
         <v>59.7</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>452</v>
+      </c>
+      <c r="B105" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="B105" t="s">
-        <v>163</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="E105">
         <v>39</v>
@@ -4188,21 +4190,21 @@
         <v>61</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B106" t="s">
         <v>51</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E106">
         <v>37.4</v>
@@ -4211,7 +4213,7 @@
         <v>62.6</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
